--- a/data/healthcare.xlsx
+++ b/data/healthcare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD101CE-5C11-457A-BF4D-F003162B67C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957611A3-8FD9-4E6F-AFF6-7CA18672FAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -412,11 +412,11 @@
         <v>45565</v>
       </c>
       <c r="B2" s="6">
-        <v>3.31</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="C2" s="6">
         <f>(B2/B6-1)*100</f>
-        <v>9.9667774086378724</v>
+        <v>8.9605734767025158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -424,11 +424,11 @@
         <v>45473</v>
       </c>
       <c r="B3" s="6">
-        <v>3.22</v>
+        <v>3.274</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C58" si="0">(B3/B7-1)*100</f>
-        <v>8.4175084175084116</v>
+        <f t="shared" ref="C3:C57" si="0">(B3/B7-1)*100</f>
+        <v>8.0528052805280517</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -436,11 +436,11 @@
         <v>45382</v>
       </c>
       <c r="B4" s="6">
-        <v>3.17</v>
+        <v>3.234</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>8.1911262798634699</v>
+        <v>8.414347971840419</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -448,11 +448,11 @@
         <v>45291</v>
       </c>
       <c r="B5" s="6">
-        <v>3.09</v>
+        <v>3.149</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>8.4210526315789291</v>
+        <v>8.5487762840400059</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -460,11 +460,11 @@
         <v>45199</v>
       </c>
       <c r="B6" s="6">
-        <v>3.01</v>
+        <v>3.069</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>7.8853046594981935</v>
+        <v>8.253968253968246</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -472,11 +472,11 @@
         <v>45107</v>
       </c>
       <c r="B7" s="6">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>8.394160583941602</v>
+        <v>9.2679408582762246</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -484,11 +484,11 @@
         <v>45016</v>
       </c>
       <c r="B8" s="6">
-        <v>2.93</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>7.3260073260073222</v>
+        <v>8.3151779230210554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -496,11 +496,11 @@
         <v>44926</v>
       </c>
       <c r="B9" s="6">
-        <v>2.85</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>5.1660516605166018</v>
+        <v>6.5369078222548671</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -508,11 +508,11 @@
         <v>44834</v>
       </c>
       <c r="B10" s="6">
-        <v>2.79</v>
+        <v>2.835</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>4.4943820224719211</v>
+        <v>5.8625840179238331</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -520,11 +520,11 @@
         <v>44742</v>
       </c>
       <c r="B11" s="3">
-        <v>2.74</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>4.5801526717557328</v>
+        <v>5.8396946564885477</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -532,11 +532,11 @@
         <v>44651</v>
       </c>
       <c r="B12" s="3">
-        <v>2.73</v>
+        <v>2.754</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="0"/>
-        <v>7.9051383399209474</v>
+        <v>8.8537549407114788</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -544,11 +544,11 @@
         <v>44561</v>
       </c>
       <c r="B13" s="3">
-        <v>2.71</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>8.4000000000000075</v>
+        <v>8.9199999999999946</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -556,11 +556,11 @@
         <v>44469</v>
       </c>
       <c r="B14" s="3">
-        <v>2.67</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="0"/>
-        <v>10.788381742738572</v>
+        <v>11.120331950207451</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/data/healthcare.xlsx
+++ b/data/healthcare.xlsx
@@ -446,180 +446,180 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>3.45</v>
+        <v>3.502</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>3.344</v>
+        <v>3.4</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>3.274</v>
+        <v>3.344</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>3.234</v>
+        <v>3.274</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>3.149</v>
+        <v>3.234</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>3.069</v>
+        <v>3.149</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>3.03</v>
+        <v>3.069</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>2.983</v>
+        <v>3.03</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>2.901</v>
+        <v>2.983</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2.835</v>
+        <v>2.901</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2.773</v>
+        <v>2.835</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.754</v>
+        <v>2.773</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.723</v>
+        <v>2.754</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>8.9</v>
@@ -628,375 +628,375 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.678</v>
+        <v>2.723</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>11.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.62</v>
+        <v>2.678</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>26.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3.7</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-2.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-15.5</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.44</v>
+        <v>2.07</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0.8</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2019-06-30</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>2019-03-31</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
         <v>2.37</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>2018-09-30</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>2018-06-30</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2018-03-31</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2017-03-31</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
         <v>2.22</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2017-03-31</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
         <v>2.17</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2015-09-30</t>
+          <t>2015-12-31</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2015-06-30</t>
+          <t>2015-09-30</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2015-06-30</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2014-12-31</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-12-31</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>5.3</v>
@@ -1005,102 +1005,102 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2014-03-31</t>
+          <t>2014-06-30</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2014-03-31</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2013-09-30</t>
+          <t>2013-12-31</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2013-06-30</t>
+          <t>2013-09-30</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2013-03-31</t>
+          <t>2013-06-30</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2012-12-31</t>
+          <t>2013-03-31</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
         <v>1.84</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2012-09-30</t>
+          <t>2012-12-31</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>3.4</v>
@@ -1109,11 +1109,11 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2012-06-30</t>
+          <t>2012-09-30</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>3.4</v>
@@ -1122,118 +1122,120 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2012-03-31</t>
+          <t>2012-06-30</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
         <v>1.81</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2011-12-31</t>
+          <t>2012-03-31</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2011-09-30</t>
+          <t>2011-12-31</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2011-06-30</t>
+          <t>2011-09-30</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2011-03-31</t>
+          <t>2011-06-30</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="C58" s="6" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2010-12-31</t>
+          <t>2011-03-31</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2010-09-30</t>
+          <t>2010-12-31</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C60" s="3" t="n"/>
+        <v>1.73</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2010-06-30</t>
+          <t>2010-09-30</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="C61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2010-03-31</t>
+          <t>2010-06-30</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2009-12-31</t>
+          <t>2010-03-31</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
@@ -1242,8 +1244,14 @@
       <c r="C63" s="3" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="3" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>2009-12-31</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>1.66</v>
+      </c>
       <c r="C64" s="3" t="n"/>
     </row>
     <row r="65">
